--- a/processed_data/data_gazepath/data_UPF-Barcelona.xlsx
+++ b/processed_data/data_gazepath/data_UPF-Barcelona.xlsx
@@ -507,7 +507,7 @@
         <v>1689.666666666667</v>
       </c>
       <c r="K3">
-        <v>2388.666666666666</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>798</v>
       </c>
       <c r="K5">
-        <v>1532.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2974.000000000001</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1540.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1415.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1195,16 +1195,8 @@
       <c r="E23">
         <v>6</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>5567.666666666667</v>
-      </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1253,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3372.000000000002</v>
+        <v>2206.333333333335</v>
       </c>
       <c r="K24">
         <v>1681.333333333333</v>
@@ -1342,7 +1334,7 @@
         <v>1015.666666666667</v>
       </c>
       <c r="K26">
-        <v>2696.999999999999</v>
+        <v>931.333333333333</v>
       </c>
     </row>
     <row r="27">
@@ -1425,10 +1417,10 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1940.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>3189.666666666668</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="29">
@@ -1468,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>2106.333333333334</v>
+        <v>790.666666666667</v>
       </c>
       <c r="K29">
-        <v>2963.666666666667</v>
+        <v>1331.333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1548,7 +1540,7 @@
         <v>4984.333333333334</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1582,14 +1574,22 @@
       <c r="E32">
         <v>3</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G32">
+        <v>6526</v>
+      </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>2089.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>849.0000000000009</v>
@@ -1626,7 +1626,7 @@
         <v>4801</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1703,22 +1703,14 @@
       <c r="E35">
         <v>6</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G35">
-        <v>5942.666666666667</v>
-      </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3699.000000000001</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1940,7 +1932,7 @@
         <v>1514.666666666667</v>
       </c>
       <c r="K42">
-        <v>2565.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1988,16 +1980,8 @@
       <c r="E44">
         <v>3</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G44">
-        <v>8159.333333333334</v>
-      </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2031,19 +2015,11 @@
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G45">
-        <v>9017.666666666668</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>549</v>
@@ -2092,7 +2068,7 @@
         <v>1155.333333333333</v>
       </c>
       <c r="K46">
-        <v>2564.666666666666</v>
+        <v>1357.333333333333</v>
       </c>
     </row>
     <row r="47">
@@ -2155,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="J48">
-        <v>1157.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>582.333333333333</v>
@@ -2305,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>3148.999999999999</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2380,7 +2356,7 @@
         <v>1272.999999999999</v>
       </c>
       <c r="K54">
-        <v>1831.333333333334</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55">
@@ -2647,12 +2623,6 @@
       <c r="E61">
         <v>2</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61">
         <v>0</v>
       </c>
@@ -2682,12 +2652,6 @@
       <c r="E62">
         <v>3</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2792,19 +2756,11 @@
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G66">
-        <v>5726</v>
-      </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>1731.333333333335</v>
@@ -2975,16 +2931,8 @@
       <c r="E71">
         <v>6</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G71">
-        <v>6634.333333333334</v>
-      </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3018,16 +2966,8 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G72">
-        <v>5609.333333333334</v>
-      </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3125,16 +3065,8 @@
       <c r="E75">
         <v>4</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G75">
-        <v>6592.666666666667</v>
-      </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3234,19 +3166,11 @@
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G78">
-        <v>8659.333333333334</v>
-      </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -3480,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>1323.000000000001</v>
@@ -3589,16 +3513,8 @@
       <c r="E87">
         <v>4</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G87">
-        <v>6809.333333333334</v>
-      </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3682,10 +3598,10 @@
         <v>1</v>
       </c>
       <c r="J89">
-        <v>1432.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>1622.999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3875,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="J94">
-        <v>1723.000000000001</v>
+        <v>615.666666666667</v>
       </c>
       <c r="K94">
         <v>540.6666666666661</v>
@@ -4099,16 +4015,16 @@
         </is>
       </c>
       <c r="G101">
-        <v>5026</v>
+        <v>8042.666666666667</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>2881.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K101">
         <v>1282.333333333333</v>
@@ -4151,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>2223.000000000002</v>
+        <v>590.6666666666679</v>
       </c>
       <c r="K102">
         <v>274</v>
@@ -4272,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <v>1382.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>207.3333333333339</v>
@@ -4350,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>4246.999999999999</v>
+        <v>2048</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4528,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -4688,19 +4604,11 @@
       <c r="E118">
         <v>5</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G118">
-        <v>7084.333333333334</v>
-      </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -4912,7 +4820,7 @@
         <v>4609.333333333334</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -4961,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>2199</v>
+        <v>0</v>
       </c>
       <c r="K124">
-        <v>3023</v>
+        <v>1557.333333333334</v>
       </c>
     </row>
     <row r="125">
@@ -5004,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>4890.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -5090,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1654.333333333333</v>
+        <v>480.333333333333</v>
       </c>
       <c r="K127">
         <v>1531.333333333333</v>
@@ -5179,7 +5087,7 @@
         <v>1906.333333333334</v>
       </c>
       <c r="K129">
-        <v>2457.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5499,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>2448</v>
+        <v>865.6666666666661</v>
       </c>
     </row>
     <row r="138">
@@ -5524,16 +5432,8 @@
       <c r="E138">
         <v>1</v>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G138">
-        <v>5076</v>
-      </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -5726,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>2138.666666666667</v>
+        <v>906.3333333333339</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -5812,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="J145">
-        <v>1555.333333333333</v>
+        <v>622.9999999999991</v>
       </c>
       <c r="K145">
         <v>390.6666666666661</v>
@@ -5858,7 +5758,7 @@
         <v>2622.000000000001</v>
       </c>
       <c r="K146">
-        <v>2281.333333333334</v>
+        <v>840.666666666667</v>
       </c>
     </row>
     <row r="147">
@@ -5901,7 +5801,7 @@
         <v>2364.666666666667</v>
       </c>
       <c r="K147">
-        <v>2006.333333333333</v>
+        <v>749</v>
       </c>
     </row>
     <row r="148">
@@ -6048,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>3349</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -6091,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>1215.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -6174,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154">
         <v>1024</v>
@@ -6220,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>1613.666666666667</v>
+        <v>424</v>
       </c>
       <c r="K155">
         <v>590.6666666666661</v>
@@ -6250,14 +6150,14 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G156">
-        <v>9776</v>
+        <v>7851</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6599,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="J164">
-        <v>2305.333333333332</v>
+        <v>1206.333333333332</v>
       </c>
       <c r="K164">
         <v>2438.666666666666</v>
@@ -6642,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="J165">
-        <v>3548</v>
+        <v>1024</v>
       </c>
       <c r="K165">
         <v>1257.333333333333</v>
@@ -7061,7 +6961,7 @@
         <v>2</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175">
         <v>955.333333333333</v>
@@ -7104,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176">
         <v>1157.333333333334</v>
@@ -7144,7 +7044,7 @@
         <v>4476</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -7299,19 +7199,11 @@
       <c r="E181">
         <v>4</v>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G181">
-        <v>6559.333333333334</v>
-      </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -7791,7 +7683,7 @@
         <v>1298</v>
       </c>
       <c r="K195">
-        <v>2107.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -7825,13 +7717,13 @@
         <v>5309.333333333334</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196">
-        <v>2031.333333333333</v>
+        <v>932.333333333333</v>
       </c>
       <c r="K196">
         <v>657.3333333333339</v>
@@ -7955,7 +7847,7 @@
         <v>1739.666666666667</v>
       </c>
       <c r="K199">
-        <v>2149.000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7982,17 +7874,17 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G200">
-        <v>6426</v>
+        <v>9609.333333333334</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200">
         <v>432.3333333333339</v>
@@ -8023,19 +7915,11 @@
       <c r="E201">
         <v>1</v>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G201">
-        <v>9009.333333333334</v>
-      </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -8393,14 +8277,14 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G213">
-        <v>7876.000000000001</v>
+        <v>8867.666666666668</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -8569,10 +8453,10 @@
         </is>
       </c>
       <c r="G217">
-        <v>7792.666666666667</v>
+        <v>8826</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -8624,7 +8508,7 @@
         <v>765.666666666667</v>
       </c>
       <c r="K218">
-        <v>2937.666666666667</v>
+        <v>1239.666666666667</v>
       </c>
     </row>
     <row r="219">
@@ -8831,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <v>2907.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K224">
         <v>357.3333333333339</v>
@@ -8874,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="J225">
-        <v>1348</v>
+        <v>157.3333333333339</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -8909,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <v>2374</v>
+        <v>0</v>
       </c>
       <c r="K226">
         <v>557.333333333333</v>
@@ -9058,16 +8942,8 @@
       <c r="E230">
         <v>4</v>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G230">
-        <v>9459.333333333334</v>
-      </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -9101,19 +8977,11 @@
       <c r="E231">
         <v>5</v>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G231">
-        <v>8134.333333333334</v>
-      </c>
       <c r="H231">
         <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231">
         <v>765.666666666667</v>
@@ -9236,7 +9104,7 @@
         </is>
       </c>
       <c r="G234">
-        <v>6526</v>
+        <v>7226</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -9334,7 +9202,7 @@
         <v>1672.000000000001</v>
       </c>
       <c r="K236">
-        <v>1199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -9374,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <v>2305.333333333333</v>
+        <v>806.333333333333</v>
       </c>
       <c r="K237">
         <v>149</v>
@@ -9550,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="J243">
-        <v>1449</v>
+        <v>0</v>
       </c>
       <c r="K243">
         <v>847.9999999999996</v>
@@ -9578,16 +9446,8 @@
       <c r="E244">
         <v>6</v>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G244">
-        <v>7534.333333333334</v>
-      </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -9630,7 +9490,7 @@
         <v>4626</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -9713,13 +9573,13 @@
         </is>
       </c>
       <c r="G247">
-        <v>6226.000000000001</v>
+        <v>7834.333333333334</v>
       </c>
       <c r="H247">
         <v>0</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J247">
         <v>765.6666666666661</v>
@@ -9793,19 +9653,11 @@
       <c r="E249">
         <v>5</v>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G249">
-        <v>5759.333333333334</v>
-      </c>
       <c r="H249">
         <v>0</v>
       </c>
       <c r="I249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J249">
         <v>1689.666666666665</v>
@@ -10254,7 +10106,7 @@
         <v>4909.333333333334</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261">
         <v>0</v>
